--- a/Documents/Sistem İzleme İşlevleriSON-Ret-1.xlsx
+++ b/Documents/Sistem İzleme İşlevleriSON-Ret-1.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emre.karakurum\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Sap Agent\SapAgent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D010E75D-AE1C-41BA-9BD2-CF71DFC28E93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="0" windowWidth="20808" windowHeight="9780" tabRatio="517" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="517" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R-3" sheetId="1" r:id="rId1"/>
     <sheet name="Hana" sheetId="2" r:id="rId2"/>
     <sheet name="Fonksiyonlara ait WSler" sheetId="3" r:id="rId3"/>
+    <sheet name="Endpoints" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="681">
   <si>
     <t>ZAYGBCSYS_RFCS_BCKGPRC</t>
   </si>
@@ -2074,7 +2077,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -2282,9 +2285,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2304,9 +2304,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2339,7 +2342,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2382,7 +2391,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2420,7 +2435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2458,7 +2479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2496,7 +2523,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2534,7 +2567,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2572,7 +2611,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2619,7 +2664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2666,7 +2717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2713,7 +2770,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2760,7 +2823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 1"/>
+        <xdr:cNvPr id="9" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2796,7 +2865,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2871,6 +2940,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2906,6 +2992,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3081,30 +3184,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3124,7 +3227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3247,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3172,7 +3275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3198,7 +3301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3212,7 +3315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3229,7 +3332,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -3246,7 +3349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -3263,7 +3366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -3280,7 +3383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3294,7 +3397,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -3308,7 +3411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -3322,7 +3425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -3339,7 +3442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -3356,16 +3459,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -3377,7 +3480,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -3391,7 +3494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3405,7 +3508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -3419,7 +3522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -3433,7 +3536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -3447,7 +3550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3461,7 +3564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -3475,7 +3578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -3491,11 +3594,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
-    <hyperlink ref="H12" r:id="rId4"/>
-    <hyperlink ref="H13" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -3504,26 +3607,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3534,7 +3637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -3545,7 +3648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -3562,40 +3665,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BS310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView topLeftCell="A289" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" customWidth="1"/>
-    <col min="25" max="25" width="9.88671875" customWidth="1"/>
-    <col min="26" max="26" width="11.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
     <col min="28" max="28" width="9" customWidth="1"/>
-    <col min="29" max="29" width="10.5546875" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
@@ -3606,7 +3709,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3619,16 +3722,16 @@
       <c r="I2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -3637,7 +3740,7 @@
       <c r="O2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>94</v>
       </c>
       <c r="Q2" s="13" t="s">
@@ -3751,40 +3854,40 @@
       <c r="BA2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BB2" s="34" t="s">
+      <c r="BB2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="BC2" s="34" t="s">
+      <c r="BC2" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="BD2" s="34" t="s">
+      <c r="BD2" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="BE2" s="34" t="s">
+      <c r="BE2" s="33" t="s">
         <v>135</v>
       </c>
       <c r="BF2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="BG2" s="34" t="s">
+      <c r="BG2" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="BH2" s="34" t="s">
+      <c r="BH2" s="33" t="s">
         <v>138</v>
       </c>
       <c r="BI2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="BJ2" s="34" t="s">
+      <c r="BJ2" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="BK2" s="34" t="s">
+      <c r="BK2" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="BL2" s="34" t="s">
+      <c r="BL2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="BM2" s="34" t="s">
+      <c r="BM2" s="33" t="s">
         <v>143</v>
       </c>
       <c r="BN2" s="13" t="s">
@@ -3793,10 +3896,10 @@
       <c r="BO2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="BP2" s="34" t="s">
+      <c r="BP2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="BQ2" s="34" t="s">
+      <c r="BQ2" s="33" t="s">
         <v>147</v>
       </c>
       <c r="BR2" s="13" t="s">
@@ -3806,7 +3909,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -3819,16 +3922,16 @@
       <c r="I3" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="35">
         <v>1</v>
       </c>
       <c r="N3" s="16">
@@ -3837,7 +3940,7 @@
       <c r="O3" s="17">
         <v>0.54857638888889004</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="34" t="s">
         <v>152</v>
       </c>
       <c r="Q3" s="16">
@@ -3947,40 +4050,40 @@
       <c r="BA3" s="14">
         <v>0</v>
       </c>
-      <c r="BB3" s="35" t="s">
+      <c r="BB3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BC3" s="35" t="s">
+      <c r="BC3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BD3" s="35" t="s">
+      <c r="BD3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BE3" s="35" t="s">
+      <c r="BE3" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BF3" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="BG3" s="36">
+      <c r="BG3" s="35">
         <v>0</v>
       </c>
-      <c r="BH3" s="36">
+      <c r="BH3" s="35">
         <v>0</v>
       </c>
       <c r="BI3" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="BJ3" s="35" t="s">
+      <c r="BJ3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BK3" s="35" t="s">
+      <c r="BK3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BL3" s="35" t="s">
+      <c r="BL3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BM3" s="35" t="s">
+      <c r="BM3" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BN3" s="15" t="s">
@@ -3989,10 +4092,10 @@
       <c r="BO3" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="BP3" s="35" t="s">
+      <c r="BP3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BQ3" s="35" t="s">
+      <c r="BQ3" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BR3" s="14">
@@ -4002,7 +4105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -4015,16 +4118,16 @@
       <c r="I4" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>1</v>
       </c>
       <c r="N4" s="16">
@@ -4033,7 +4136,7 @@
       <c r="O4" s="17">
         <v>0.54861111111111005</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="34" t="s">
         <v>152</v>
       </c>
       <c r="Q4" s="16">
@@ -4145,40 +4248,40 @@
       <c r="BA4" s="14">
         <v>0</v>
       </c>
-      <c r="BB4" s="35" t="s">
+      <c r="BB4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BC4" s="35" t="s">
+      <c r="BC4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BD4" s="35" t="s">
+      <c r="BD4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="35" t="s">
+      <c r="BE4" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BF4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="BG4" s="36">
+      <c r="BG4" s="35">
         <v>0</v>
       </c>
-      <c r="BH4" s="36">
+      <c r="BH4" s="35">
         <v>0</v>
       </c>
       <c r="BI4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="BJ4" s="35" t="s">
+      <c r="BJ4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BK4" s="35" t="s">
+      <c r="BK4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BL4" s="35" t="s">
+      <c r="BL4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BM4" s="35" t="s">
+      <c r="BM4" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BN4" s="15" t="s">
@@ -4187,10 +4290,10 @@
       <c r="BO4" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="BP4" s="35" t="s">
+      <c r="BP4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BQ4" s="35" t="s">
+      <c r="BQ4" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BR4" s="14">
@@ -4200,23 +4303,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="H5" s="14">
         <v>3</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="35">
         <v>1</v>
       </c>
       <c r="N5" s="16">
@@ -4225,7 +4328,7 @@
       <c r="O5" s="17">
         <v>0.35526620370369999</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="34" t="s">
         <v>152</v>
       </c>
       <c r="Q5" s="16">
@@ -4335,40 +4438,40 @@
       <c r="BA5" s="14">
         <v>0</v>
       </c>
-      <c r="BB5" s="35" t="s">
+      <c r="BB5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BC5" s="35" t="s">
+      <c r="BC5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BD5" s="35" t="s">
+      <c r="BD5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BE5" s="35" t="s">
+      <c r="BE5" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BF5" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="BG5" s="36">
+      <c r="BG5" s="35">
         <v>0</v>
       </c>
-      <c r="BH5" s="36">
+      <c r="BH5" s="35">
         <v>0</v>
       </c>
       <c r="BI5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="BJ5" s="35" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BK5" s="35" t="s">
+      <c r="BK5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BL5" s="35" t="s">
+      <c r="BL5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BM5" s="35" t="s">
+      <c r="BM5" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BN5" s="15" t="s">
@@ -4377,10 +4480,10 @@
       <c r="BO5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="BP5" s="35" t="s">
+      <c r="BP5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BQ5" s="35" t="s">
+      <c r="BQ5" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BR5" s="14">
@@ -4390,23 +4493,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="H6" s="14">
         <v>4</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>1</v>
       </c>
       <c r="N6" s="16">
@@ -4415,7 +4518,7 @@
       <c r="O6" s="17">
         <v>0.54166666666666996</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="34" t="s">
         <v>152</v>
       </c>
       <c r="Q6" s="16">
@@ -4525,40 +4628,40 @@
       <c r="BA6" s="14">
         <v>0</v>
       </c>
-      <c r="BB6" s="35" t="s">
+      <c r="BB6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BC6" s="35" t="s">
+      <c r="BC6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BD6" s="35" t="s">
+      <c r="BD6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BE6" s="35" t="s">
+      <c r="BE6" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BF6" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="BG6" s="36">
+      <c r="BG6" s="35">
         <v>0</v>
       </c>
-      <c r="BH6" s="36">
+      <c r="BH6" s="35">
         <v>0</v>
       </c>
       <c r="BI6" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="BJ6" s="35" t="s">
+      <c r="BJ6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BK6" s="35" t="s">
+      <c r="BK6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BL6" s="35" t="s">
+      <c r="BL6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BM6" s="35" t="s">
+      <c r="BM6" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BN6" s="15" t="s">
@@ -4567,10 +4670,10 @@
       <c r="BO6" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="BP6" s="35" t="s">
+      <c r="BP6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="BQ6" s="35" t="s">
+      <c r="BQ6" s="34" t="s">
         <v>152</v>
       </c>
       <c r="BR6" s="14">
@@ -4580,7 +4683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>417</v>
       </c>
@@ -4588,8 +4691,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:71" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>80</v>
       </c>
@@ -4603,7 +4706,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4611,7 +4714,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -4619,47 +4722,47 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -4667,12 +4770,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H25" s="19" t="s">
         <v>86</v>
       </c>
@@ -4713,7 +4816,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>417</v>
       </c>
@@ -4760,7 +4863,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H27" s="20">
         <v>2</v>
       </c>
@@ -4799,7 +4902,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H28" s="20">
         <v>3</v>
       </c>
@@ -4838,7 +4941,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H29" s="20">
         <v>4</v>
       </c>
@@ -4877,7 +4980,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H30" s="20">
         <v>5</v>
       </c>
@@ -4916,7 +5019,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H31" s="20">
         <v>6</v>
       </c>
@@ -4955,7 +5058,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H32" s="20">
         <v>7</v>
       </c>
@@ -4994,7 +5097,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H33" s="20">
         <v>8</v>
       </c>
@@ -5033,7 +5136,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H34" s="20">
         <v>9</v>
       </c>
@@ -5072,7 +5175,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H35" s="20">
         <v>10</v>
       </c>
@@ -5111,7 +5214,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H36" s="20">
         <v>11</v>
       </c>
@@ -5150,7 +5253,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H37" s="20">
         <v>12</v>
       </c>
@@ -5191,8 +5294,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>80</v>
       </c>
@@ -5203,7 +5306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -5219,7 +5322,7 @@
       <c r="J42" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="K42" s="37" t="s">
+      <c r="K42" s="36" t="s">
         <v>249</v>
       </c>
       <c r="L42" s="24" t="s">
@@ -5228,13 +5331,13 @@
       <c r="M42" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="N42" s="37" t="s">
+      <c r="N42" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="O42" s="37" t="s">
+      <c r="O42" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="P42" s="37" t="s">
+      <c r="P42" s="36" t="s">
         <v>254</v>
       </c>
       <c r="Q42" s="24" t="s">
@@ -5297,10 +5400,10 @@
       <c r="AJ42" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="AK42" s="37" t="s">
+      <c r="AK42" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="AL42" s="37" t="s">
+      <c r="AL42" s="36" t="s">
         <v>276</v>
       </c>
       <c r="AM42" s="24" t="s">
@@ -5328,7 +5431,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -5344,16 +5447,16 @@
       <c r="J43" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="K43" s="38"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="26" t="s">
         <v>286</v>
       </c>
       <c r="M43" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
       <c r="Q43" s="25">
         <v>3725</v>
       </c>
@@ -5410,10 +5513,10 @@
       <c r="AJ43" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="AK43" s="39">
+      <c r="AK43" s="38">
         <v>0</v>
       </c>
-      <c r="AL43" s="38"/>
+      <c r="AL43" s="37"/>
       <c r="AM43" s="26" t="s">
         <v>296</v>
       </c>
@@ -5437,7 +5540,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -5451,16 +5554,16 @@
         <v>300</v>
       </c>
       <c r="J44" s="26"/>
-      <c r="K44" s="38"/>
+      <c r="K44" s="37"/>
       <c r="L44" s="26" t="s">
         <v>301</v>
       </c>
       <c r="M44" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
       <c r="Q44" s="25">
         <v>115682</v>
       </c>
@@ -5513,10 +5616,10 @@
       <c r="AJ44" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="AK44" s="39">
+      <c r="AK44" s="38">
         <v>0</v>
       </c>
-      <c r="AL44" s="38"/>
+      <c r="AL44" s="37"/>
       <c r="AM44" s="26" t="s">
         <v>296</v>
       </c>
@@ -5540,7 +5643,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>246</v>
       </c>
@@ -5551,16 +5654,16 @@
         <v>300</v>
       </c>
       <c r="J45" s="26"/>
-      <c r="K45" s="38"/>
+      <c r="K45" s="37"/>
       <c r="L45" s="26" t="s">
         <v>309</v>
       </c>
       <c r="M45" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
       <c r="Q45" s="25">
         <v>64017</v>
       </c>
@@ -5615,10 +5718,10 @@
       <c r="AJ45" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="AK45" s="39">
+      <c r="AK45" s="38">
         <v>0</v>
       </c>
-      <c r="AL45" s="38"/>
+      <c r="AL45" s="37"/>
       <c r="AM45" s="26" t="s">
         <v>296</v>
       </c>
@@ -5642,7 +5745,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H46" s="25">
         <v>4</v>
       </c>
@@ -5650,16 +5753,16 @@
         <v>300</v>
       </c>
       <c r="J46" s="26"/>
-      <c r="K46" s="38"/>
+      <c r="K46" s="37"/>
       <c r="L46" s="26" t="s">
         <v>314</v>
       </c>
       <c r="M46" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
       <c r="Q46" s="25">
         <v>23692</v>
       </c>
@@ -5712,10 +5815,10 @@
       <c r="AJ46" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="AK46" s="39">
+      <c r="AK46" s="38">
         <v>0</v>
       </c>
-      <c r="AL46" s="38"/>
+      <c r="AL46" s="37"/>
       <c r="AM46" s="26" t="s">
         <v>296</v>
       </c>
@@ -5739,7 +5842,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>417</v>
       </c>
@@ -5755,16 +5858,16 @@
       <c r="J47" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="K47" s="38"/>
+      <c r="K47" s="37"/>
       <c r="L47" s="26" t="s">
         <v>322</v>
       </c>
       <c r="M47" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
       <c r="Q47" s="25">
         <v>1994</v>
       </c>
@@ -5821,10 +5924,10 @@
       <c r="AJ47" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="AK47" s="39">
+      <c r="AK47" s="38">
         <v>0</v>
       </c>
-      <c r="AL47" s="38"/>
+      <c r="AL47" s="37"/>
       <c r="AM47" s="26" t="s">
         <v>327</v>
       </c>
@@ -5844,7 +5947,7 @@
       </c>
       <c r="AT47" s="26"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H48" s="25">
         <v>6</v>
       </c>
@@ -5854,16 +5957,16 @@
       <c r="J48" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="K48" s="38"/>
+      <c r="K48" s="37"/>
       <c r="L48" s="26" t="s">
         <v>328</v>
       </c>
       <c r="M48" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
       <c r="Q48" s="25">
         <v>3650</v>
       </c>
@@ -5920,10 +6023,10 @@
       <c r="AJ48" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="AK48" s="39">
+      <c r="AK48" s="38">
         <v>0</v>
       </c>
-      <c r="AL48" s="38"/>
+      <c r="AL48" s="37"/>
       <c r="AM48" s="26" t="s">
         <v>327</v>
       </c>
@@ -5943,7 +6046,7 @@
       </c>
       <c r="AT48" s="26"/>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H49" s="25">
         <v>7</v>
       </c>
@@ -5951,16 +6054,16 @@
         <v>300</v>
       </c>
       <c r="J49" s="26"/>
-      <c r="K49" s="38"/>
+      <c r="K49" s="37"/>
       <c r="L49" s="26" t="s">
         <v>333</v>
       </c>
       <c r="M49" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
       <c r="Q49" s="25">
         <v>93157</v>
       </c>
@@ -6013,10 +6116,10 @@
       <c r="AJ49" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="AK49" s="39">
+      <c r="AK49" s="38">
         <v>0</v>
       </c>
-      <c r="AL49" s="38"/>
+      <c r="AL49" s="37"/>
       <c r="AM49" s="26" t="s">
         <v>296</v>
       </c>
@@ -6040,7 +6143,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H50" s="25">
         <v>8</v>
       </c>
@@ -6050,16 +6153,16 @@
       <c r="J50" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="K50" s="38"/>
+      <c r="K50" s="37"/>
       <c r="L50" s="26" t="s">
         <v>339</v>
       </c>
       <c r="M50" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
       <c r="Q50" s="25">
         <v>3760</v>
       </c>
@@ -6116,10 +6219,10 @@
       <c r="AJ50" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="AK50" s="39">
+      <c r="AK50" s="38">
         <v>0</v>
       </c>
-      <c r="AL50" s="38"/>
+      <c r="AL50" s="37"/>
       <c r="AM50" s="26" t="s">
         <v>344</v>
       </c>
@@ -6139,8 +6242,8 @@
       </c>
       <c r="AT50" s="26"/>
     </row>
-    <row r="52" spans="1:46" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:46" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>80</v>
       </c>
@@ -6154,7 +6257,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -6182,17 +6285,17 @@
       <c r="N55" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="O55" s="37" t="s">
+      <c r="O55" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="P55" s="37" t="s">
+      <c r="P55" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="Q55" s="37" t="s">
+      <c r="Q55" s="36" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -6218,11 +6321,11 @@
         <v>362</v>
       </c>
       <c r="N56" s="26"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-    </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -6250,11 +6353,11 @@
       <c r="N57" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-    </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>347</v>
       </c>
@@ -6279,11 +6382,11 @@
       <c r="N58" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-    </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>348</v>
       </c>
@@ -6308,11 +6411,11 @@
       <c r="N59" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-    </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H60" s="25">
         <v>5</v>
       </c>
@@ -6334,11 +6437,11 @@
       <c r="N60" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-    </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H61" s="25">
         <v>6</v>
       </c>
@@ -6360,11 +6463,11 @@
       <c r="N61" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-    </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H62" s="25">
         <v>7</v>
       </c>
@@ -6386,11 +6489,11 @@
       <c r="N62" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-    </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H63" s="25">
         <v>8</v>
       </c>
@@ -6412,11 +6515,11 @@
       <c r="N63" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-    </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H64" s="25">
         <v>9</v>
       </c>
@@ -6438,11 +6541,11 @@
       <c r="N64" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H65" s="25">
         <v>10</v>
       </c>
@@ -6464,11 +6567,11 @@
       <c r="N65" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H66" s="25">
         <v>11</v>
       </c>
@@ -6490,11 +6593,11 @@
       <c r="N66" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H67" s="25">
         <v>12</v>
       </c>
@@ -6516,11 +6619,11 @@
       <c r="N67" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H68" s="25">
         <v>13</v>
       </c>
@@ -6542,11 +6645,11 @@
       <c r="N68" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H69" s="25">
         <v>14</v>
       </c>
@@ -6566,11 +6669,11 @@
         <v>389</v>
       </c>
       <c r="N69" s="26"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H70" s="25">
         <v>15</v>
       </c>
@@ -6590,11 +6693,11 @@
         <v>391</v>
       </c>
       <c r="N70" s="26"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>416</v>
       </c>
@@ -6617,11 +6720,11 @@
         <v>325</v>
       </c>
       <c r="N71" s="26"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H72" s="25">
         <v>17</v>
       </c>
@@ -6641,11 +6744,11 @@
         <v>394</v>
       </c>
       <c r="N72" s="26"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H73" s="25">
         <v>18</v>
       </c>
@@ -6665,11 +6768,11 @@
         <v>396</v>
       </c>
       <c r="N73" s="26"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H74" s="25">
         <v>19</v>
       </c>
@@ -6691,11 +6794,11 @@
       <c r="N74" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H75" s="25">
         <v>20</v>
       </c>
@@ -6717,11 +6820,11 @@
       <c r="N75" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H76" s="25">
         <v>21</v>
       </c>
@@ -6743,11 +6846,11 @@
       <c r="N76" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H77" s="25">
         <v>22</v>
       </c>
@@ -6769,11 +6872,11 @@
       <c r="N77" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H78" s="25">
         <v>23</v>
       </c>
@@ -6795,11 +6898,11 @@
       <c r="N78" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H79" s="25">
         <v>24</v>
       </c>
@@ -6819,11 +6922,11 @@
         <v>12</v>
       </c>
       <c r="N79" s="26"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H80" s="25">
         <v>25</v>
       </c>
@@ -6843,11 +6946,11 @@
         <v>3</v>
       </c>
       <c r="N80" s="26"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H81" s="25">
         <v>26</v>
       </c>
@@ -6867,11 +6970,11 @@
         <v>12</v>
       </c>
       <c r="N81" s="26"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H82" s="25">
         <v>27</v>
       </c>
@@ -6891,11 +6994,11 @@
         <v>1</v>
       </c>
       <c r="N82" s="26"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H83" s="25">
         <v>28</v>
       </c>
@@ -6917,16 +7020,16 @@
       <c r="N83" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H85" s="18" t="s">
         <v>415</v>
       </c>
@@ -6934,7 +7037,7 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H86" s="19" t="s">
         <v>86</v>
       </c>
@@ -6956,17 +7059,17 @@
       <c r="N86" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="O86" s="40" t="s">
+      <c r="O86" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="P86" s="40" t="s">
+      <c r="P86" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="Q86" s="40" t="s">
+      <c r="Q86" s="39" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>417</v>
       </c>
@@ -6992,11 +7095,11 @@
         <v>0</v>
       </c>
       <c r="N87" s="23"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H88" s="20">
         <v>2</v>
       </c>
@@ -7018,11 +7121,11 @@
       <c r="N88" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H89" s="20">
         <v>3</v>
       </c>
@@ -7044,11 +7147,11 @@
       <c r="N89" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H90" s="20">
         <v>4</v>
       </c>
@@ -7070,11 +7173,11 @@
       <c r="N90" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="41"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H91" s="20">
         <v>5</v>
       </c>
@@ -7096,11 +7199,11 @@
       <c r="N91" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="41"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="40"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H92" s="20">
         <v>6</v>
       </c>
@@ -7122,11 +7225,11 @@
       <c r="N92" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="41"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H93" s="20">
         <v>7</v>
       </c>
@@ -7148,11 +7251,11 @@
       <c r="N93" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H94" s="20">
         <v>8</v>
       </c>
@@ -7174,11 +7277,11 @@
       <c r="N94" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
-      <c r="Q94" s="41"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H95" s="20">
         <v>9</v>
       </c>
@@ -7200,11 +7303,11 @@
       <c r="N95" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H96" s="20">
         <v>10</v>
       </c>
@@ -7226,11 +7329,11 @@
       <c r="N96" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-    </row>
-    <row r="97" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+    </row>
+    <row r="97" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H97" s="20">
         <v>11</v>
       </c>
@@ -7252,11 +7355,11 @@
       <c r="N97" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-    </row>
-    <row r="98" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+    </row>
+    <row r="98" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H98" s="20">
         <v>12</v>
       </c>
@@ -7278,11 +7381,11 @@
       <c r="N98" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-    </row>
-    <row r="99" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
+    </row>
+    <row r="99" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H99" s="20">
         <v>13</v>
       </c>
@@ -7304,11 +7407,11 @@
       <c r="N99" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-    </row>
-    <row r="100" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+    </row>
+    <row r="100" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H100" s="20">
         <v>14</v>
       </c>
@@ -7328,11 +7431,11 @@
         <v>389</v>
       </c>
       <c r="N100" s="23"/>
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="41"/>
-    </row>
-    <row r="101" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="40"/>
+    </row>
+    <row r="101" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H101" s="20">
         <v>15</v>
       </c>
@@ -7352,11 +7455,11 @@
         <v>391</v>
       </c>
       <c r="N101" s="23"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
-    </row>
-    <row r="102" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="40"/>
+    </row>
+    <row r="102" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H102" s="20">
         <v>16</v>
       </c>
@@ -7376,11 +7479,11 @@
         <v>325</v>
       </c>
       <c r="N102" s="23"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-    </row>
-    <row r="103" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+    </row>
+    <row r="103" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H103" s="20">
         <v>17</v>
       </c>
@@ -7400,11 +7503,11 @@
         <v>394</v>
       </c>
       <c r="N103" s="23"/>
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
-    </row>
-    <row r="104" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="40"/>
+    </row>
+    <row r="104" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H104" s="20">
         <v>18</v>
       </c>
@@ -7424,11 +7527,11 @@
         <v>396</v>
       </c>
       <c r="N104" s="23"/>
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="41"/>
-    </row>
-    <row r="105" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="40"/>
+    </row>
+    <row r="105" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H105" s="20">
         <v>19</v>
       </c>
@@ -7450,11 +7553,11 @@
       <c r="N105" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="41"/>
-    </row>
-    <row r="106" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
+      <c r="Q105" s="40"/>
+    </row>
+    <row r="106" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H106" s="20">
         <v>20</v>
       </c>
@@ -7476,11 +7579,11 @@
       <c r="N106" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="41"/>
-    </row>
-    <row r="107" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
+      <c r="Q106" s="40"/>
+    </row>
+    <row r="107" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H107" s="20">
         <v>21</v>
       </c>
@@ -7502,11 +7605,11 @@
       <c r="N107" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-    </row>
-    <row r="108" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="40"/>
+    </row>
+    <row r="108" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H108" s="20">
         <v>22</v>
       </c>
@@ -7528,11 +7631,11 @@
       <c r="N108" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-    </row>
-    <row r="109" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="40"/>
+    </row>
+    <row r="109" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H109" s="20">
         <v>23</v>
       </c>
@@ -7554,11 +7657,11 @@
       <c r="N109" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
-    </row>
-    <row r="110" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
+      <c r="Q109" s="40"/>
+    </row>
+    <row r="110" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H110" s="20">
         <v>24</v>
       </c>
@@ -7578,11 +7681,11 @@
         <v>12</v>
       </c>
       <c r="N110" s="23"/>
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="41"/>
-    </row>
-    <row r="111" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="40"/>
+    </row>
+    <row r="111" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H111" s="20">
         <v>25</v>
       </c>
@@ -7602,11 +7705,11 @@
         <v>3</v>
       </c>
       <c r="N111" s="23"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-    </row>
-    <row r="112" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O111" s="40"/>
+      <c r="P111" s="40"/>
+      <c r="Q111" s="40"/>
+    </row>
+    <row r="112" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H112" s="20">
         <v>26</v>
       </c>
@@ -7626,11 +7729,11 @@
         <v>12</v>
       </c>
       <c r="N112" s="23"/>
-      <c r="O112" s="41"/>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="41"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O112" s="40"/>
+      <c r="P112" s="40"/>
+      <c r="Q112" s="40"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H113" s="20">
         <v>27</v>
       </c>
@@ -7650,11 +7753,11 @@
         <v>1</v>
       </c>
       <c r="N113" s="23"/>
-      <c r="O113" s="41"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O113" s="40"/>
+      <c r="P113" s="40"/>
+      <c r="Q113" s="40"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H114" s="20">
         <v>28</v>
       </c>
@@ -7676,12 +7779,12 @@
       <c r="N114" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="O114" s="41"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
-    </row>
-    <row r="116" spans="1:26" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O114" s="40"/>
+      <c r="P114" s="40"/>
+      <c r="Q114" s="40"/>
+    </row>
+    <row r="116" spans="1:26" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>80</v>
       </c>
@@ -7692,7 +7795,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -7735,13 +7838,13 @@
       <c r="S119" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="T119" s="40" t="s">
+      <c r="T119" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="U119" s="40" t="s">
+      <c r="U119" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="V119" s="40" t="s">
+      <c r="V119" s="39" t="s">
         <v>441</v>
       </c>
       <c r="W119" s="19" t="s">
@@ -7757,7 +7860,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>81</v>
       </c>
@@ -7813,7 +7916,7 @@
         <v>333693</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>424</v>
       </c>
@@ -7866,7 +7969,7 @@
         <v>333693</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>425</v>
       </c>
@@ -7919,7 +8022,7 @@
         <v>333690</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H123">
         <v>400</v>
       </c>
@@ -7969,7 +8072,7 @@
         <v>333690</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>83</v>
       </c>
@@ -7982,7 +8085,7 @@
       <c r="I124" t="s">
         <v>455</v>
       </c>
-      <c r="J124" s="42">
+      <c r="J124" s="41">
         <v>10807274</v>
       </c>
       <c r="K124" s="29">
@@ -8022,14 +8125,14 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H125">
         <v>400</v>
       </c>
       <c r="I125" t="s">
         <v>455</v>
       </c>
-      <c r="J125" s="42">
+      <c r="J125" s="41">
         <v>10807274</v>
       </c>
       <c r="K125" s="29">
@@ -8069,14 +8172,14 @@
         <v>14094</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H126">
         <v>400</v>
       </c>
       <c r="I126" t="s">
         <v>460</v>
       </c>
-      <c r="J126" s="42">
+      <c r="J126" s="41">
         <v>10805076</v>
       </c>
       <c r="K126" s="29">
@@ -8116,14 +8219,14 @@
         <v>11909</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H127">
         <v>400</v>
       </c>
       <c r="I127" t="s">
         <v>460</v>
       </c>
-      <c r="J127" s="42">
+      <c r="J127" s="41">
         <v>10805076</v>
       </c>
       <c r="K127" s="29">
@@ -8163,14 +8266,14 @@
         <v>11901</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H128">
         <v>400</v>
       </c>
       <c r="I128" t="s">
         <v>455</v>
       </c>
-      <c r="J128" s="42">
+      <c r="J128" s="41">
         <v>10807274</v>
       </c>
       <c r="K128" s="29">
@@ -8210,14 +8313,14 @@
         <v>8961</v>
       </c>
     </row>
-    <row r="129" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H129">
         <v>402</v>
       </c>
       <c r="I129" t="s">
         <v>446</v>
       </c>
-      <c r="J129" s="42">
+      <c r="J129" s="41">
         <v>7900133</v>
       </c>
       <c r="K129" s="29">
@@ -8257,14 +8360,14 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="130" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H130">
         <v>400</v>
       </c>
       <c r="I130" t="s">
         <v>460</v>
       </c>
-      <c r="J130" s="42">
+      <c r="J130" s="41">
         <v>10807211</v>
       </c>
       <c r="K130" s="29">
@@ -8304,14 +8407,14 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="131" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H131">
         <v>400</v>
       </c>
       <c r="I131" t="s">
         <v>446</v>
       </c>
-      <c r="J131" s="42">
+      <c r="J131" s="41">
         <v>30420127</v>
       </c>
       <c r="K131" s="29">
@@ -8354,14 +8457,14 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="132" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H132">
         <v>400</v>
       </c>
       <c r="I132" t="s">
         <v>446</v>
       </c>
-      <c r="J132" s="42">
+      <c r="J132" s="41">
         <v>30420127</v>
       </c>
       <c r="K132" s="29">
@@ -8404,14 +8507,14 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="133" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H133">
         <v>400</v>
       </c>
       <c r="I133" t="s">
         <v>460</v>
       </c>
-      <c r="J133" s="42">
+      <c r="J133" s="41">
         <v>12210041</v>
       </c>
       <c r="K133" s="29">
@@ -8451,14 +8554,14 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="134" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H134">
         <v>400</v>
       </c>
       <c r="I134" t="s">
         <v>446</v>
       </c>
-      <c r="J134" s="42">
+      <c r="J134" s="41">
         <v>10807246</v>
       </c>
       <c r="K134" s="29">
@@ -8498,14 +8601,14 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="135" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H135">
         <v>400</v>
       </c>
       <c r="I135" t="s">
         <v>446</v>
       </c>
-      <c r="J135" s="42">
+      <c r="J135" s="41">
         <v>10801734</v>
       </c>
       <c r="K135" s="29">
@@ -8545,14 +8648,14 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="136" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H136">
         <v>400</v>
       </c>
       <c r="I136" t="s">
         <v>455</v>
       </c>
-      <c r="J136" s="42">
+      <c r="J136" s="41">
         <v>11200110</v>
       </c>
       <c r="K136" s="29">
@@ -8592,14 +8695,14 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="137" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H137">
         <v>400</v>
       </c>
       <c r="I137" t="s">
         <v>455</v>
       </c>
-      <c r="J137" s="42">
+      <c r="J137" s="41">
         <v>12450126</v>
       </c>
       <c r="K137" s="29">
@@ -8642,14 +8745,14 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="138" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H138">
         <v>400</v>
       </c>
       <c r="I138" t="s">
         <v>455</v>
       </c>
-      <c r="J138" s="42">
+      <c r="J138" s="41">
         <v>12450126</v>
       </c>
       <c r="K138" s="29">
@@ -8689,14 +8792,14 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="139" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H139">
         <v>400</v>
       </c>
       <c r="I139" t="s">
         <v>460</v>
       </c>
-      <c r="J139" s="42">
+      <c r="J139" s="41">
         <v>11280062</v>
       </c>
       <c r="K139" s="29">
@@ -8736,14 +8839,14 @@
         <v>894</v>
       </c>
     </row>
-    <row r="140" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H140">
         <v>400</v>
       </c>
       <c r="I140" t="s">
         <v>460</v>
       </c>
-      <c r="J140" s="42">
+      <c r="J140" s="41">
         <v>10801270</v>
       </c>
       <c r="K140" s="29">
@@ -8783,14 +8886,14 @@
         <v>745</v>
       </c>
     </row>
-    <row r="141" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H141">
         <v>400</v>
       </c>
       <c r="I141" t="s">
         <v>460</v>
       </c>
-      <c r="J141" s="42">
+      <c r="J141" s="41">
         <v>10802983</v>
       </c>
       <c r="K141" s="29">
@@ -8833,14 +8936,14 @@
         <v>673</v>
       </c>
     </row>
-    <row r="142" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H142">
         <v>400</v>
       </c>
       <c r="I142" t="s">
         <v>460</v>
       </c>
-      <c r="J142" s="42">
+      <c r="J142" s="41">
         <v>10802983</v>
       </c>
       <c r="K142" s="29">
@@ -8883,14 +8986,14 @@
         <v>673</v>
       </c>
     </row>
-    <row r="143" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H143">
         <v>400</v>
       </c>
       <c r="I143" t="s">
         <v>460</v>
       </c>
-      <c r="J143" s="42">
+      <c r="J143" s="41">
         <v>10802983</v>
       </c>
       <c r="K143" s="29">
@@ -8933,14 +9036,14 @@
         <v>673</v>
       </c>
     </row>
-    <row r="144" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H144">
         <v>400</v>
       </c>
       <c r="I144" t="s">
         <v>460</v>
       </c>
-      <c r="J144" s="42">
+      <c r="J144" s="41">
         <v>10802983</v>
       </c>
       <c r="K144" s="29">
@@ -8983,7 +9086,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>417</v>
       </c>
@@ -8996,7 +9099,7 @@
       <c r="I145" t="s">
         <v>460</v>
       </c>
-      <c r="J145" s="42">
+      <c r="J145" s="41">
         <v>10802983</v>
       </c>
       <c r="K145" s="29">
@@ -9039,14 +9142,14 @@
         <v>673</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H146">
         <v>400</v>
       </c>
       <c r="I146" t="s">
         <v>460</v>
       </c>
-      <c r="J146" s="42">
+      <c r="J146" s="41">
         <v>10802983</v>
       </c>
       <c r="K146" s="29">
@@ -9089,14 +9192,14 @@
         <v>673</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H147">
         <v>400</v>
       </c>
       <c r="I147" t="s">
         <v>455</v>
       </c>
-      <c r="J147" s="42">
+      <c r="J147" s="41">
         <v>10807274</v>
       </c>
       <c r="K147" s="29">
@@ -9139,14 +9242,14 @@
         <v>499</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H148">
         <v>400</v>
       </c>
       <c r="I148" t="s">
         <v>455</v>
       </c>
-      <c r="J148" s="42">
+      <c r="J148" s="41">
         <v>10807274</v>
       </c>
       <c r="K148" s="29">
@@ -9189,14 +9292,14 @@
         <v>499</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H149">
         <v>400</v>
       </c>
       <c r="I149" t="s">
         <v>455</v>
       </c>
-      <c r="J149" s="42">
+      <c r="J149" s="41">
         <v>10807274</v>
       </c>
       <c r="K149" s="29">
@@ -9239,14 +9342,14 @@
         <v>499</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H150">
         <v>402</v>
       </c>
       <c r="I150" t="s">
         <v>455</v>
       </c>
-      <c r="J150" s="42">
+      <c r="J150" s="41">
         <v>7900334</v>
       </c>
       <c r="K150" s="29">
@@ -9286,14 +9389,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H151">
         <v>402</v>
       </c>
       <c r="I151" t="s">
         <v>455</v>
       </c>
-      <c r="J151" s="42">
+      <c r="J151" s="41">
         <v>7900334</v>
       </c>
       <c r="K151" s="29">
@@ -9333,14 +9436,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H152">
         <v>402</v>
       </c>
       <c r="I152" t="s">
         <v>455</v>
       </c>
-      <c r="J152" s="42">
+      <c r="J152" s="41">
         <v>7900334</v>
       </c>
       <c r="K152" s="29">
@@ -9380,14 +9483,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H153">
         <v>402</v>
       </c>
       <c r="I153" t="s">
         <v>455</v>
       </c>
-      <c r="J153" s="42">
+      <c r="J153" s="41">
         <v>7900334</v>
       </c>
       <c r="K153" s="29">
@@ -9427,14 +9530,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H154">
         <v>402</v>
       </c>
       <c r="I154" t="s">
         <v>455</v>
       </c>
-      <c r="J154" s="42">
+      <c r="J154" s="41">
         <v>7900334</v>
       </c>
       <c r="K154" s="29">
@@ -9474,14 +9577,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H155">
         <v>402</v>
       </c>
       <c r="I155" t="s">
         <v>455</v>
       </c>
-      <c r="J155" s="42">
+      <c r="J155" s="41">
         <v>7900334</v>
       </c>
       <c r="K155" s="29">
@@ -9521,14 +9624,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H156">
         <v>402</v>
       </c>
       <c r="I156" t="s">
         <v>455</v>
       </c>
-      <c r="J156" s="42">
+      <c r="J156" s="41">
         <v>7900334</v>
       </c>
       <c r="K156" s="29">
@@ -9568,14 +9671,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H157">
         <v>402</v>
       </c>
       <c r="I157" t="s">
         <v>455</v>
       </c>
-      <c r="J157" s="42">
+      <c r="J157" s="41">
         <v>7900334</v>
       </c>
       <c r="K157" s="29">
@@ -9615,14 +9718,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H158">
         <v>400</v>
       </c>
       <c r="I158" t="s">
         <v>446</v>
       </c>
-      <c r="J158" s="42">
+      <c r="J158" s="41">
         <v>10807940</v>
       </c>
       <c r="K158" s="29">
@@ -9665,14 +9768,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H159">
         <v>400</v>
       </c>
       <c r="I159" t="s">
         <v>446</v>
       </c>
-      <c r="J159" s="42">
+      <c r="J159" s="41">
         <v>10807940</v>
       </c>
       <c r="K159" s="29">
@@ -9715,14 +9818,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H160">
         <v>400</v>
       </c>
       <c r="I160" t="s">
         <v>446</v>
       </c>
-      <c r="J160" s="42">
+      <c r="J160" s="41">
         <v>10807940</v>
       </c>
       <c r="K160" s="29">
@@ -9765,14 +9868,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H161">
         <v>400</v>
       </c>
       <c r="I161" t="s">
         <v>446</v>
       </c>
-      <c r="J161" s="42">
+      <c r="J161" s="41">
         <v>10805047</v>
       </c>
       <c r="K161" s="29">
@@ -9815,14 +9918,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H162">
         <v>400</v>
       </c>
       <c r="I162" t="s">
         <v>446</v>
       </c>
-      <c r="J162" s="42">
+      <c r="J162" s="41">
         <v>10805047</v>
       </c>
       <c r="K162" s="29">
@@ -9865,14 +9968,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="163" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H163">
         <v>400</v>
       </c>
       <c r="I163" t="s">
         <v>455</v>
       </c>
-      <c r="J163" s="42">
+      <c r="J163" s="41">
         <v>10805726</v>
       </c>
       <c r="K163" s="29">
@@ -9915,14 +10018,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H164">
         <v>400</v>
       </c>
       <c r="I164" t="s">
         <v>455</v>
       </c>
-      <c r="J164" s="42">
+      <c r="J164" s="41">
         <v>10805726</v>
       </c>
       <c r="K164" s="29">
@@ -9965,14 +10068,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H165">
         <v>400</v>
       </c>
       <c r="I165" t="s">
         <v>455</v>
       </c>
-      <c r="J165" s="42">
+      <c r="J165" s="41">
         <v>10805726</v>
       </c>
       <c r="K165" s="29">
@@ -10015,14 +10118,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H166">
         <v>400</v>
       </c>
       <c r="I166" t="s">
         <v>455</v>
       </c>
-      <c r="J166" s="42">
+      <c r="J166" s="41">
         <v>10805726</v>
       </c>
       <c r="K166" s="29">
@@ -10065,14 +10168,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H167">
         <v>400</v>
       </c>
       <c r="I167" t="s">
         <v>446</v>
       </c>
-      <c r="J167" s="42">
+      <c r="J167" s="41">
         <v>10800280</v>
       </c>
       <c r="K167" s="29">
@@ -10112,14 +10215,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H168">
         <v>402</v>
       </c>
       <c r="I168" t="s">
         <v>446</v>
       </c>
-      <c r="J168" s="42">
+      <c r="J168" s="41">
         <v>7800056</v>
       </c>
       <c r="K168" s="29">
@@ -10162,14 +10265,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H169">
         <v>402</v>
       </c>
       <c r="I169" t="s">
         <v>446</v>
       </c>
-      <c r="J169" s="42">
+      <c r="J169" s="41">
         <v>7800056</v>
       </c>
       <c r="K169" s="29">
@@ -10209,14 +10312,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H170">
         <v>402</v>
       </c>
       <c r="I170" t="s">
         <v>446</v>
       </c>
-      <c r="J170" s="42">
+      <c r="J170" s="41">
         <v>7800056</v>
       </c>
       <c r="K170" s="29">
@@ -10256,7 +10359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H171">
         <v>400</v>
       </c>
@@ -10306,7 +10409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H172">
         <v>400</v>
       </c>
@@ -10356,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H173">
         <v>400</v>
       </c>
@@ -10406,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H174">
         <v>400</v>
       </c>
@@ -10453,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H175">
         <v>400</v>
       </c>
@@ -10500,8 +10603,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:24" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:24" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>80</v>
       </c>
@@ -10512,7 +10615,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -10571,7 +10674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>81</v>
       </c>
@@ -10630,7 +10733,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -10689,7 +10792,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H183" t="s">
         <v>166</v>
       </c>
@@ -10742,7 +10845,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H184" t="s">
         <v>174</v>
       </c>
@@ -10795,7 +10898,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>417</v>
       </c>
@@ -10803,8 +10906,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="199" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>80</v>
       </c>
@@ -10830,7 +10933,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3</v>
       </c>
@@ -10853,7 +10956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>81</v>
       </c>
@@ -10876,7 +10979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>83</v>
       </c>
@@ -10899,7 +11002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H205" t="s">
         <v>295</v>
       </c>
@@ -10916,7 +11019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H206" t="s">
         <v>295</v>
       </c>
@@ -10933,7 +11036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H207" t="s">
         <v>295</v>
       </c>
@@ -10950,7 +11053,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H208" t="s">
         <v>295</v>
       </c>
@@ -10967,7 +11070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H209" t="s">
         <v>295</v>
       </c>
@@ -10984,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H210" t="s">
         <v>295</v>
       </c>
@@ -11001,7 +11104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H211" t="s">
         <v>295</v>
       </c>
@@ -11018,7 +11121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H212" t="s">
         <v>295</v>
       </c>
@@ -11035,7 +11138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H213" t="s">
         <v>295</v>
       </c>
@@ -11052,13 +11155,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="219" spans="1:16" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
         <v>80</v>
       </c>
@@ -11066,19 +11169,19 @@
         <v>594</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="33" t="s">
+      <c r="B222" s="42" t="s">
         <v>595</v>
       </c>
-      <c r="C222" s="33"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C222" s="42"/>
+      <c r="D222" s="42"/>
+      <c r="E222" s="42"/>
+      <c r="F222" s="42"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>81</v>
       </c>
@@ -11106,17 +11209,17 @@
       <c r="M223" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="N223" s="40" t="s">
+      <c r="N223" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="O223" s="40" t="s">
+      <c r="O223" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="P223" s="40" t="s">
+      <c r="P223" s="39" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>83</v>
       </c>
@@ -11142,7 +11245,7 @@
       <c r="O224" s="9"/>
       <c r="P224" s="9"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H225" t="s">
         <v>295</v>
       </c>
@@ -11159,7 +11262,7 @@
       <c r="O225" s="9"/>
       <c r="P225" s="9"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H226" t="s">
         <v>295</v>
       </c>
@@ -11179,7 +11282,7 @@
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
         <v>295</v>
       </c>
@@ -11199,7 +11302,7 @@
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H228" t="s">
         <v>295</v>
       </c>
@@ -11219,7 +11322,7 @@
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H229" t="s">
         <v>295</v>
       </c>
@@ -11239,7 +11342,7 @@
       <c r="O229" s="9"/>
       <c r="P229" s="9"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H230" t="s">
         <v>295</v>
       </c>
@@ -11260,7 +11363,7 @@
       <c r="P230" s="9"/>
       <c r="Q230" s="29"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H231" t="s">
         <v>295</v>
       </c>
@@ -11280,7 +11383,7 @@
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H232" t="s">
         <v>295</v>
       </c>
@@ -11300,7 +11403,7 @@
       <c r="O232" s="9"/>
       <c r="P232" s="9"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H233" t="s">
         <v>295</v>
       </c>
@@ -11320,7 +11423,7 @@
       <c r="O233" s="9"/>
       <c r="P233" s="9"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H234" t="s">
         <v>295</v>
       </c>
@@ -11340,13 +11443,13 @@
       <c r="O234" s="9"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="239" spans="1:17" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="18" t="s">
         <v>80</v>
       </c>
@@ -11354,19 +11457,19 @@
         <v>680</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3</v>
       </c>
-      <c r="B242" s="33" t="s">
+      <c r="B242" s="42" t="s">
         <v>609</v>
       </c>
-      <c r="C242" s="33"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C242" s="42"/>
+      <c r="D242" s="42"/>
+      <c r="E242" s="42"/>
+      <c r="F242" s="42"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>81</v>
       </c>
@@ -11392,7 +11495,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>83</v>
       </c>
@@ -11415,12 +11518,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H246" s="19" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G247">
         <v>1</v>
       </c>
@@ -11428,7 +11531,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G248">
         <v>2</v>
       </c>
@@ -11436,7 +11539,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G249">
         <v>3</v>
       </c>
@@ -11444,7 +11547,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G250">
         <v>4</v>
       </c>
@@ -11452,7 +11555,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G251">
         <v>5</v>
       </c>
@@ -11460,18 +11563,18 @@
         <v>618</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I252" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="260" spans="1:18" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="18" t="s">
         <v>80</v>
       </c>
@@ -11479,19 +11582,19 @@
         <v>622</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>3</v>
       </c>
-      <c r="B263" s="33" t="s">
+      <c r="B263" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
-      <c r="F263" s="33"/>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C263" s="42"/>
+      <c r="D263" s="42"/>
+      <c r="E263" s="42"/>
+      <c r="F263" s="42"/>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>81</v>
       </c>
@@ -11535,7 +11638,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>83</v>
       </c>
@@ -11570,13 +11673,13 @@
         <v>638</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="279" spans="1:18" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
         <v>80</v>
       </c>
@@ -11584,19 +11687,19 @@
         <v>639</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="33" t="s">
+      <c r="B282" s="42" t="s">
         <v>640</v>
       </c>
-      <c r="C282" s="33"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="33"/>
-      <c r="F282" s="33"/>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C282" s="42"/>
+      <c r="D282" s="42"/>
+      <c r="E282" s="42"/>
+      <c r="F282" s="42"/>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>81</v>
       </c>
@@ -11622,7 +11725,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>83</v>
       </c>
@@ -11645,12 +11748,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H286" s="32" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H287" s="19" t="s">
         <v>648</v>
       </c>
@@ -11685,7 +11788,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H288" t="s">
         <v>658</v>
       </c>
@@ -11720,7 +11823,7 @@
         <v>68232</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H289" t="s">
         <v>660</v>
       </c>
@@ -11755,7 +11858,7 @@
         <v>31145</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H290" t="s">
         <v>662</v>
       </c>
@@ -11790,7 +11893,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H291" t="s">
         <v>664</v>
       </c>
@@ -11825,7 +11928,7 @@
         <v>20123</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H292" t="s">
         <v>666</v>
       </c>
@@ -11860,7 +11963,7 @@
         <v>1183452</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H293" t="s">
         <v>668</v>
       </c>
@@ -11895,7 +11998,7 @@
         <v>129333</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H294" t="s">
         <v>670</v>
       </c>
@@ -11930,7 +12033,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H295" t="s">
         <v>671</v>
       </c>
@@ -11965,7 +12068,7 @@
         <v>6383</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H296" t="s">
         <v>673</v>
       </c>
@@ -12000,7 +12103,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H297" t="s">
         <v>675</v>
       </c>
@@ -12035,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H298" t="s">
         <v>677</v>
       </c>
@@ -12070,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H299" t="s">
         <v>678</v>
       </c>
@@ -12105,29 +12208,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>417</v>
       </c>
       <c r="C301" s="28"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C302" s="29"/>
     </row>
-    <row r="303" spans="1:18" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C304" s="30"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306" s="30"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307" s="30"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309" s="30"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310" s="30"/>
     </row>
   </sheetData>
@@ -12141,4 +12244,89 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88C9B5B-695E-418A-B06D-B085F40849B6}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>